--- a/df_before_sentiment.xlsx
+++ b/df_before_sentiment.xlsx
@@ -394,29 +394,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Un accueil peu chaleureux, peu de choix, et on nous a virée de la salle à 18h alors qu’il y’a marqué fermeture à 20h sur le net.</t>
+          <t>Une pause un arret dej un bon endroit pour prendre du recul par rapport a la foule du centre commercial .une tres jolie vitrine tres propre le personnel est tres aimable et souriant des patisseries sympathiques des salades des jus une restauration rapide tres bien concue.suite au deconfinement j ai voulu reteste .deja on vous dit en terrasse c est pas plus d une heure .les tables ne sont ni debarrasses ni laver .hygiene a revoir tres vite .aucun personnel a l exterieur c est pas tres serieux .des tas de couverts trainent .et des papiers par terre j ai regrette un peu .le cafe est bon</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>45030</v>
+        <v>44349</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Que ce soit en sucré ou salé les plats sont préparés avec soin et les saveurs sont au rendez-vous. L'espace restaurant est cosy et permet de se restaurer sur place. Le personnel est dynamique et enjoué donc un plaisir de s'y rendre. À noter qu'ils proposent également à emporter (pizzas et autres). ??</t>
+          <t>Bon rapport qualité prix... personnel agréable !!!</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>44497</v>
+        <v>45084</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -430,37 +430,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Accueil et service agréables. Salle climatisée et espace extérieur ombragé. Repas simple et correct en centre ville de Montpellier.</t>
+          <t>Très agréable.  On peut déguster sur place.  Super avec une boisson chaude.</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>44748</v>
+        <v>44923</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Petite terrasse sympas
-Choix
-Bon pain
-Équipe très poli et sympas
-Parking
-Le top quoi !!</t>
+          <t>Commande prête dans les délais impartis. Du vrai professionalisme.</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43074</v>
+        <v>44452</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,32 +466,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 an que je passe presque tout les matins chercher mon petit déjeuner, un accueil au top, les serveuses très adorables et lieu très propre. Je vous conseille ce lieu, allez y les yeux fermés !!?</t>
+          <t>Pain délicieux, service efficace..</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>44883</v>
+        <v>43701</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tout est franchement très bon et abordable, des pâtisseries jusqu’au pizzas çela vaut le détour. Accueil également au top</t>
+          <t>Le seul reproche que je ferais c'est qu'une fois sur deux je me retrouve avec un coca classique au lieu d'un coca zero....</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>43360</v>
+        <v>44352</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -506,6 +501,508 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
+        <is>
+          <t>Serveuse sympathique, pâtisserie pas cher et de bonne qualité !</t>
+        </is>
+      </c>
+      <c r="B8" s="2">
+        <v>43013</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Une découverte génial</t>
+        </is>
+      </c>
+      <c r="B9" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nul
+Une fortune (12,50€ formule) pour une pauvre salade où il n’y a pas grand chose à manger, quand on soulève le jambon on s’aperçoit que la salade est abîmée et elle est ridiculement petite cette salade! Le CC les 4 temps regorge d’endroit pour snacker fuyez La Croissanterie</t>
+        </is>
+      </c>
+      <c r="B10" s="2">
+        <v>44783</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bons produits, bon accueil, prix un peu élevés</t>
+        </is>
+      </c>
+      <c r="B11" s="2">
+        <v>43271</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Les prix sont élevés et il n'y a pas forcément de places pour s'asseoir, certaines tables manquent de propreté.</t>
+        </is>
+      </c>
+      <c r="B12" s="2">
+        <v>43306</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accueil fort sympathique, idéalement situé dans le centre Parisien #auDD</t>
+        </is>
+      </c>
+      <c r="B13" s="2">
+        <v>44074</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Équipe souriante et accueillante ! Produits de bonne qualité ! Je recommande vivement :)</t>
+        </is>
+      </c>
+      <c r="B14" s="2">
+        <v>43449</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Que ce soit en sucré ou salé les plats sont préparés avec soin et les saveurs sont au rendez-vous. L'espace restaurant est cosy et permet de se restaurer sur place. Le personnel est dynamique et enjoué donc un plaisir de s'y rendre. À noter qu'ils proposent également à emporter (pizzas et autres). ??</t>
+        </is>
+      </c>
+      <c r="B15" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Je deconseille les bagels au saumon c'est une véritable escroquerie 4.60€ pour ça, humm ça laisse rêveur non ? , Et la qualité des pâtisseries n'est pas géniale
+Bonne journée</t>
+        </is>
+      </c>
+      <c r="B16" s="2">
+        <v>44504</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nice place.
+Affordable prices.
+Delicious pastry ?</t>
+        </is>
+      </c>
+      <c r="B17" s="2">
+        <v>43436</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Très sympa !, il y a deux étages, personnel est très gentil...</t>
+        </is>
+      </c>
+      <c r="B18" s="2">
+        <v>43792</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Très bonne boulangerie. Je n'ai jamais attendu pour être servi et les produits sont délicieux. L'équipe qui y travaille et chaleureuse. Je recommande ! ?</t>
+        </is>
+      </c>
+      <c r="B19" s="2">
+        <v>44124</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cliente habituelle, j'ai été très déçue de voir que la Mie Caline vend... son pain de la veille! C'est ce qui m'est arrivé vendredi dernier. Ce pain était destiné à de jeunes enfants dont j'ai la garde. C'est une honte! Le pain était dur et caoutchouteux, vraiment pas comme d'habitude. Cette pratique me dégoûte!</t>
+        </is>
+      </c>
+      <c r="B20" s="2">
+        <v>42582</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Accueil parfait, le personnel très simpa.
+Je recommande le roulée a la pistache, le chocolat chaud et juste délicieux.</t>
+        </is>
+      </c>
+      <c r="B21" s="2">
+        <v>45225</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pas mal pour un café, un pain au choc et une part de pizza.</t>
+        </is>
+      </c>
+      <c r="B22" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Envahi par les mouches et moucherons...
+Le jambon qui dépasse des sandwichs est racorni, couleur marron foncé : beurk.
+Je ne m'attendais pas à de la grande cuisine, ce n'est pas l'endroit.
+Mais un snack sur le pouce peut quand même être frais.
+Une honte !
+Après 10 minutes de queue, j'ai pris une salade césar (dans un bol fermé pour éviter les bestioles). Eh bien j'ai du les chasser en permanence de mon bol une fois celui-ci ouvert.
+Quelle angoisse. Je me demande comment cela est possible avec le passage qu'il peut y avoir Place de l'Opéra.
+Évidemment je déconseille formellement.</t>
+        </is>
+      </c>
+      <c r="B23" s="2">
+        <v>43561</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Très bien au niveau du personnel,  aimable, souriant.
+Ils demandent et contrôlent le pass sanitaire avant de vous donner un plateau si vous souhaitez consommer en terrasse.  Cela n'empêche pas une cliente de se glisser à  une table à côté de la nôtre avec son sac à  emporter et de manger, boire et tousser sans vérification de son pass. Elle l'a, ne l'a pas...?</t>
+        </is>
+      </c>
+      <c r="B24" s="2">
+        <v>44419</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J'y vais souvent pour manger avec mon amoureux ou des amis, la nourriture est peu chère et excellente. Leurs sandwichs sont complets, et leur desserts délicieux</t>
+        </is>
+      </c>
+      <c r="B25" s="2">
+        <v>43548</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Personnel accueillant et dynamique,  grand choix de pains et autres.</t>
+        </is>
+      </c>
+      <c r="B26" s="2">
+        <v>44495</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Le service est sympa par contre le Hot dog c'est le plus infect que j'ai manger de ma vie. Pain blanc congelé et pas cuit (dimanche) et patte fade, saucisse de 1er prix. La mie caline à nettement baissé en qualité depuis quelque année mais le prix par contre il monte.</t>
+        </is>
+      </c>
+      <c r="B27" s="2">
+        <v>44577</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ce n'est pas qu'une boulangerie...
+C'est une famille, un rassemblement de bonne humeur et de bon produit, je suis entrain d'assomer actuellement le calini  (et non panini) mexicain, une pur folie. Un voyage.
+Gros remerciements à Farid qui a tt suite compris notre commande  !!!!
+Je recommande</t>
+        </is>
+      </c>
+      <c r="B28" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Produit satisfaisant et personnel souriant..</t>
+        </is>
+      </c>
+      <c r="B29" s="2">
+        <v>45186</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>La boucherie Ange vous propose que des bons produits à consommer dans votre vie quotidienne avec toutes vos differentes et c'est très agréable pour votre santé alimentaire. Merci...!</t>
+        </is>
+      </c>
+      <c r="B30" s="2">
+        <v>44413</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lieux sympathique pour déjeuner ou pour boire un verre , nouvelle responsable très agréable et accueillante, et des serveuses très professionnelles souriantes et serviables  dont maeva qui  est toujours au top avec le sourire, je recommande ce lieux sans hésiter</t>
+        </is>
+      </c>
+      <c r="B31" s="2">
+        <v>43863</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Accueil agréable, bon produit</t>
+        </is>
+      </c>
+      <c r="B32" s="2">
+        <v>44414</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gros choix de petits plaisirs ?</t>
+        </is>
+      </c>
+      <c r="B33" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Bon accueil, les produits sont bons aussi! Avec un bémol pour les pizzas mais je suis exigeante... les viennoiseries, pains et sandwichs sont très bons et frais! Dommage que l’on ne puisse pas réserver en ligne afin d’éviter l’affluence des midis... très pratique : le parking.</t>
+        </is>
+      </c>
+      <c r="B34" s="2">
+        <v>43639</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Je passe régulièrement prendre mon déjeuner, et franchement il n’y a rien à dire.
 L’équipe est super sympa, agréable et on est servi rapidement.
@@ -513,499 +1010,11 @@
 Merci et bonne continuation</t>
         </is>
       </c>
-      <c r="B8" s="2">
+      <c r="B35" s="2">
         <v>44931</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Toilettes en panne. Tables sales  non nettoyées et sol de l'étage immonde !
-Juste un regard sur la barrière qui monte à l'étage et on  comprends que le ménage n'est jamais fait!</t>
-        </is>
-      </c>
-      <c r="B9" s="2">
-        <v>44416</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lieu sympa avec terrasse dans la galerie commerciale. Indispensable pour mettre de la convivialité supplementaire dans un lieu qui est déjà  très agréable.</t>
-        </is>
-      </c>
-      <c r="B10" s="2">
-        <v>44085</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Pas le meilleur café du monde mais bon marché. Le croissant chaud était très bon.</t>
-        </is>
-      </c>
-      <c r="B11" s="2">
-        <v>45143</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Magique des gens qui travaillent à la gare St.Lazare avec le sourire. Et la courtoisie de vous trouvez le menu le moins cher. Prix normaux pour Paris le flan à 2 euros, et un menu sandwich boisson dessert sauf la boisson bleu,pour 8 euros et les sandwichs sont bien chargés avec du vrai jambon.Face à la ligne 12 grand départ (à peu près). Bisous les petits loups,ced .</t>
-        </is>
-      </c>
-      <c r="B12" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bonjour je suis venu hier prendre boissons et café la vendeuse au top on a discuté d'animaux super agréable je recommande</t>
-        </is>
-      </c>
-      <c r="B13" s="2">
-        <v>45166</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Très agréable,personnel accueillant et à l'ecoute</t>
-        </is>
-      </c>
-      <c r="B14" s="2">
-        <v>43256</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Acceuil sympathique et souriant malgré l affluence. Un petit acceuil personnalisé et une efficacité due à une bonne organisation : parfait.</t>
-        </is>
-      </c>
-      <c r="B15" s="2">
-        <v>44770</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Du choix, des produits frais et de bonne qualité. Je recommande.</t>
-        </is>
-      </c>
-      <c r="B16" s="2">
-        <v>43780</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Très bon rapport qualité-prix</t>
-        </is>
-      </c>
-      <c r="B17" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tout est bon  le pain aux noisettes excellent .je vous tire mon chapeau.. Et le personnel super et toujours avec le sourire</t>
-        </is>
-      </c>
-      <c r="B18" s="2">
-        <v>44421</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Tres bon petit déjeuner</t>
-        </is>
-      </c>
-      <c r="B19" s="2">
-        <v>43602</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C'est pas la politesse qui les étouffe - ""jus d'orange fraîchement pressé"" préparé à l'avance - brioche au Nutella très très sèche (à 16h45). Bref à éviter</t>
-        </is>
-      </c>
-      <c r="B20" s="2">
-        <v>43866</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>L'attente est longue même tôt le matin. Les viennoiseries etaient excellentes.</t>
-        </is>
-      </c>
-      <c r="B21" s="2">
-        <v>42978</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Nul deux tarte au citron pourris déçu je déconseille</t>
-        </is>
-      </c>
-      <c r="B22" s="2">
-        <v>44418</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Pas de glace pas de rapidité pas de respect de la distanciation :/</t>
-        </is>
-      </c>
-      <c r="B23" s="2">
-        <v>44002</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Produits de qualité mais personnel peu aimable. Dommage pour un lieu autant fréquenté.</t>
-        </is>
-      </c>
-      <c r="B24" s="2">
-        <v>42417</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Visite le 29/07/23. Endroit sale, tables non nettoyées. Obligé de le faire soit même si on veut manger sur une table convenable. 4 employés derrière le comptoir se tournant les pouces. Je ne recommande pas</t>
-        </is>
-      </c>
-      <c r="B25" s="2">
-        <v>45136</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Des insectes dans les salades</t>
-        </is>
-      </c>
-      <c r="B26" s="2">
-        <v>44704</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Commencez par mettre du personnel compétant en vue de l’affluence parce que poser des stagiaires de 14 ans très long à la détente à la caisse c’est vraiment pas possible.</t>
-        </is>
-      </c>
-      <c r="B27" s="2">
-        <v>44824</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>hygiène déplorable.
-Les sanitaires sont dans un état ...une horreur.. et après avoir fait la réflexion a une employée celle ci m'a dit qu'il yavait pas de femme de ménage..</t>
-        </is>
-      </c>
-      <c r="B28" s="2">
-        <v>44562</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>J'ai commandé des sandwichs, la mie câline c'est non seulement trompé dans un des sandwichs mais il en manqué également un. J'ai appelé pour avoir le sandwich manquant, ils m'ont fait toutes les excuses possibles (Je vous entends pas, je comprends pas votre nom, je ne retrouve pas votre commande...) Un foutage de geule comme on en voit rarement! Ps: l'excuse du dimanche matin est vraiment facile.</t>
-        </is>
-      </c>
-      <c r="B29" s="2">
-        <v>44584</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lieux sympathique pour déjeuner ou pour boire un verre , nouvelle responsable très agréable et accueillante, et des serveuses très professionnelles souriantes et serviables  dont maeva qui  est toujours au top avec le sourire, je recommande ce lieux sans hésiter</t>
-        </is>
-      </c>
-      <c r="B30" s="2">
-        <v>43863</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Qualité médiocre produits industriels prix relativement élevés il n'y a que l'emplacement qui soit positif</t>
-        </is>
-      </c>
-      <c r="B31" s="2">
-        <v>43030</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sandwich extrêmement froid...limite congelé... à revoir</t>
-        </is>
-      </c>
-      <c r="B32" s="2">
-        <v>42830</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Un coin confortable et agréable pour se restaurer sur place et une équipe sympathique.</t>
-        </is>
-      </c>
-      <c r="B33" s="2">
-        <v>45237</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Très bons choix de sandwichs ,paninis formules avec sandwichs, boissons et desserts et très bons gâteaux</t>
-        </is>
-      </c>
-      <c r="B34" s="2">
-        <v>43598</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cher, pas de choix, se trompe dans les commandes</t>
-        </is>
-      </c>
-      <c r="B35" s="2">
-        <v>44358</v>
-      </c>
       <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1016,50 +1025,50 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cliente depuis longtemps de la brioche dorée, je suis de plus en plus déçue.  La qualité ny est plus (salade fanée et noire) sandwichs, pain dur et sec. Les quantités se sont amenuisées mais pas le prix malheureusement.</t>
+          <t>Venu ce midi prendre un panini avec une tarte aux pralines. La personne qui s'est occupée de me servir eu la bonne idée de mettre la tarte au fond du sac. Résultat la praline est resté collé à ce dernier : tarte immangeable ! Pour finir mon panini poulet s'est transformé en panini fromage !!!! Je n'ai donc ni pu manger mon panini ni mon dessert</t>
         </is>
       </c>
       <c r="B36" s="2">
-        <v>43328</v>
+        <v>44271</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Très moyen , on se cale le ventre juste !</t>
+          <t>Accueil agréable et sur le chemin à pied vers la gare Montparnasse !</t>
         </is>
       </c>
       <c r="B37" s="2">
-        <v>44667</v>
+        <v>43857</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Produits corrects. le personnel est sympathique et dynamique.</t>
+          <t>Pas mal les jus de fruits pressé sur place c'est vraiment délicieux ?</t>
         </is>
       </c>
       <c r="B38" s="2">
-        <v>43557</v>
+        <v>43727</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1070,70 +1079,71 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Produit correct mais accueil mitigé , service sur place , pas de serviette à dispo, tables sales, mouches sur les pizzas exposées ,</t>
+          <t>Pain industriel juste pour depanner</t>
         </is>
       </c>
       <c r="B39" s="2">
-        <v>43766</v>
+        <v>43670</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pas accessible à l'intérieur pour PMR,
-Si no' ça va</t>
+          <t>Très bon produit et accueil très sympa</t>
         </is>
       </c>
       <c r="B40" s="2">
-        <v>43682</v>
+        <v>43659</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Établissement sale. Café jus de chaussette.</t>
+          <t>Attention à la monnaie,  je me suis fait avoir.
+J'ai pris un pain ""câline"" à 1€10, j'ai payé avec  10€ .... a la voiture, trop tard pour moi, je me suis rendu compte que l'on lavait rendu 8€40 donc ils se sont mis 0€50 dans la poche.
+Imaginez si c'est fait avec tous le monde !
+Mais bon de ma faute, excès de confiance....</t>
         </is>
       </c>
       <c r="B41" s="2">
-        <v>43427</v>
+        <v>43593</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Restaurant pas entretenu et très sale
-Dommage car les produits sont bon</t>
+          <t>Les formules sont sympas et l'accueil irréprochable</t>
         </is>
       </c>
       <c r="B42" s="2">
-        <v>45050</v>
+        <v>43166</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1144,102 +1154,104 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sandwich dans la norme, mais avec une caissière gentille cordiale et souriante c'est bien mieux !</t>
+          <t>Accueil chaleureux, divers choix de pâtisserie et de  plats.</t>
         </is>
       </c>
       <c r="B43" s="2">
-        <v>45273</v>
+        <v>43843</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Beaucoup de choix, pâtisseries correctes, magasin propre, personnels souriants, je recommande, menus sympas et prix correct.</t>
+          <t>35 minutes avant la fermeture, impossible de consommer en terrasse car les vendeuses sont déjà en train de ranger. Clients mis dehors car fermeture imminente !
+1ère fois que je rencontre un accueil aussi désagréable dans une mie câline...</t>
         </is>
       </c>
       <c r="B44" s="2">
-        <v>44850</v>
+        <v>42597</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Super acceuillante et  très aimable c'est très agréable le matin merci beaucoup pour votre bonne humeur ??</t>
+          <t>Démarche forte sympathique ! Très appréciable, merci</t>
         </is>
       </c>
       <c r="B45" s="2">
-        <v>44958</v>
+        <v>45175</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Petit déjeuner tout à fait correct.
-Le gros plus est la serveuse qui est adorable.</t>
+          <t>Accueil agréable , service rapide, produits tels que souhaiter.</t>
         </is>
       </c>
       <c r="B46" s="2">
-        <v>45282</v>
+        <v>43009</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Très bonne boulangerie. Que ce soit du côté viennoiseries ou pains, la qualité est au toujours mise en avant.</t>
+          <t>Affligeant... le serveur demande à un des clients de mettre le masque (30s ce même n'avait pas le masque) et les autres serveurs ne l'ont que sur la bouche...
+De plus ce même serveur qui me sert se gratte le nez comme si de rien n'était. Le but du masque n'est pas d'obéir à une loi mais de se protéger et protéger les autres.
+Pas sûr que je revienne...</t>
         </is>
       </c>
       <c r="B47" s="2">
-        <v>44763</v>
+        <v>44607</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Farid le talentueux vendeur de toute les mie câline de France ????</t>
+          <t>J adore cette boulangerie,  et toujours dispo tous les jours du lundi , dimanche et jours de fête</t>
         </is>
       </c>
       <c r="B48" s="2">
-        <v>45175</v>
+        <v>43734</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1253,14 +1265,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>c'est toujours bon.</t>
+          <t>Sympa pour prendre un café pour se détendre, la salle en haut est assez grand</t>
         </is>
       </c>
       <c r="B49" s="2">
-        <v>43118</v>
+        <v>43180</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1271,69 +1283,68 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Le vendeur qui me sert est adorable et très pro ! Surtout très patient !</t>
+          <t>Personnel sympa et rapide</t>
         </is>
       </c>
       <c r="B50" s="2">
-        <v>44176</v>
+        <v>45125</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Boulangerie avec grande variété de pains, viennoiseries à prix très abordable.
-Le rayon pâtisserie et snaking est également très complet.</t>
+          <t>Je ne prend que mes granitie la bas ^^ j adore c est super bon et le prix est convenable</t>
         </is>
       </c>
       <c r="B51" s="2">
-        <v>43769</v>
+        <v>43845</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vendeuse désagréable avec plusieurs clients se matin .</t>
+          <t>Toujours dans la bonne humeur et le plaisir de servir leurs clientèle</t>
         </is>
       </c>
       <c r="B52" s="2">
-        <v>42424</v>
+        <v>43485</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Que de la quantité mais pas de la qualité , viennoiserie sèche sois disant du jour , le pain chocolat aux amandes soit ils en font qu'une fournée soit ils n'en font clairement pas assez , à 8h plus rien. Bref perso une boulangerie qui ne font pas de bonne viennoiserie perso c'est nul.</t>
+          <t>Produits frais et vendeurs souriants et agréables</t>
         </is>
       </c>
       <c r="B53" s="2">
-        <v>45194</v>
+        <v>44167</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1344,51 +1355,54 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Les prix sont plus chers qu' une boulangerie  comme toujours.
-La propreté est moyenne. Du granita  qui coulait par terre ce qui rend le sol collant.</t>
+          <t>Espace convivial
+Personnel accueillant et chaleureux
+Produit de qualité</t>
         </is>
       </c>
       <c r="B54" s="2">
-        <v>43359</v>
+        <v>44871</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>J'ai  aimer son pain et sa gentillesse.</t>
+          <t>Bien placé en plein Centre.
+Vendeuse souriante.
+Bon croissant à 1,05 €</t>
         </is>
       </c>
       <c r="B55" s="2">
-        <v>44639</v>
+        <v>44503</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Les prix sont faits pour des Américains et les sandwichs sont fades.</t>
+          <t>Bien dans l'ensemble.mais escalier dangereux.</t>
         </is>
       </c>
       <c r="B56" s="2">
-        <v>44125</v>
+        <v>45246</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1399,29 +1413,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pratique et efficace, plutôt bon, accueil très aimable.</t>
+          <t>Sans appel le personnel est aussi accueillant que les produits sont bons. La chaine met l'accent sur des produits de qualité fabriqués avec des matières premières locales ! C'est Vendéen et c'est bon et frais. L'enseigne fait preuve d'une grande imagination dans les nouveautés qu'elle propose. Un vrai plaisir d'y retourner. L'ambiance colorée invite également à s'y sentir bien.</t>
         </is>
       </c>
       <c r="B57" s="2">
-        <v>43674</v>
+        <v>43533</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Les fruits frais toujours</t>
+          <t>Tout est bon  le pain aux noisettes excellent .je vous tire mon chapeau.. Et le personnel super et toujours avec le sourire</t>
         </is>
       </c>
       <c r="B58" s="2">
-        <v>44762</v>
+        <v>44421</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1435,21 +1449,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>La prochaine fois que vous faites ""une blague"" nulle à votre collègue sur une demande d un client, soit soyez plus discret soit faites participer le client !
-Venue chercher le cadeau d anniversaire de mes JUMELLES (donc 2 enfants !) : propose 1 cookie. Je demande s il est possible d en avoir 2 car ce sont des JUMELLES. Possible mais réflexion (discrète?? Je me pose la question ?)  : ""pour des triplés, on en donne 3?"" ....
-Bah oui, sauf si vous voulez que vos clients dont c est l anniversaire se partagent le dit cookie....
-Bref, quand vous proposez une carte de fidélité avec avantages, vérifiez peut être ce que permet d obtenir pour le client cette fidélité. Il est vrai que je n avais pas ma carte de fidélité sur moi mais apparemment on m a retrouvé informatiquement. Vivons avec notre temps, vive l informatique.
-Après, pour revenir à ""l humour"", c était peut être de l humour et je n ai pas compris le 2nd degré de cette ""blague"" dite loin de moi et sans me regarder.... mais cela a jeté un froid et m a mise mal à l aise, merci !
-Concernant les produits, ils se mangent....
-Les cookies sont bons cependant et le pain croustillant.
-Bonne journée,  et peut être à bientôt pour une prochaine blague ? !</t>
+          <t>C trop bon en c moment j i vai tout les soir</t>
         </is>
       </c>
       <c r="B59" s="2">
-        <v>45039</v>
+        <v>43041</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1460,178 +1467,176 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Très bien placé. Personnel accueillant et de très bonnes tartelettes.</t>
+          <t>Bon accueil. Muffing chocolat coeur caramel pas terrible. Je plains les employés qui doivent supporter le bruit des frigos toute la journée. Tres tres bruyant. Je ne conseille pas de prendre un café a l intérieur.</t>
         </is>
       </c>
       <c r="B60" s="2">
-        <v>44484</v>
+        <v>43587</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Great environment, awesome food.</t>
+          <t>Des magasins toujours bien placés, qualité des produits constante.</t>
         </is>
       </c>
       <c r="B61" s="2">
-        <v>42863</v>
+        <v>43531</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>L’une des deux serveuses (d’origine africaine) est vraiment pas très sympa. Aucun accueil, regard haineux. À fuir.</t>
+          <t>Des sandwichs de qualité supérieure.
+Un plaisir pour les papilles.
+Que ce soit un snack chaud ou froid je recommande.</t>
         </is>
       </c>
       <c r="B62" s="2">
-        <v>45149</v>
+        <v>44364</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vendeurs les plus agréables du monde, rapide et efficace! Je recommande fortement ce lieu !</t>
+          <t>Rapidité de services mets délicieux accueil agréable excellent pour de la restauration rapide à recommander</t>
         </is>
       </c>
       <c r="B63" s="2">
-        <v>44845</v>
+        <v>43292</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Le volume à prix bas et à bonne qualité !</t>
+          <t>Très bon accueil, bon rapport qualité prix, et la salle était propre</t>
         </is>
       </c>
       <c r="B64" s="2">
-        <v>44083</v>
+        <v>43875</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dommage pas tous les pains disponibles, mais la qualité du pain est la toujours !</t>
+          <t>Horriblement long mais proore</t>
         </is>
       </c>
       <c r="B65" s="2">
-        <v>44576</v>
+        <v>43736</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Coin agréable où on peut se restaurer bonne ambiance</t>
+          <t>Super boulangerie, super prix, vraiment rien a redire... mais je voudrais qu'ils fassent des brioches aux pépites de chocolat?, c'est pour moi leur seul manque</t>
         </is>
       </c>
       <c r="B66" s="2">
-        <v>44385</v>
+        <v>42726</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bon rapport qualité prix, boulangerie d'une jolie taille, bien accueilli, café moyen.</t>
+          <t>C est trop bon et le personnel et tres gentil</t>
         </is>
       </c>
       <c r="B67" s="2">
-        <v>43602</v>
+        <v>43559</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bon produits pas chers .
-Personnelle sympa et efficace je recommande
-?</t>
+          <t>Vous avez commandé de l'air comprimé ?
+Si j'étais José Bollové (une fusion entre Bolloré et José Bové) je raserais tout ça pour couler une dalle et mettre une stèle ""ci gît l'amour du goût""</t>
         </is>
       </c>
       <c r="B68" s="2">
-        <v>43568</v>
+        <v>44644</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>29 juillet 23
-Deuxième passage ce matin : trop tôt pour les tartelettes mais le précédent existe donc en insistant un peu je les ai eu ; deux cette fois, et ... je reviendrai (i'l be bach)
-Un mois plus tôt
-Tout comme à la brioché dorée du centre commerciale Montparnasse, ici aussi, la tartelette aux pommes est un régal !!! Pâte feuilleté croustillante et cuite à la perfection (d'après moi), quartiers de pomme cuitent à cœur, goûteuses et fondantes ... on regrette qu'elle ne soit pas plus grande !!! Une délicieuse gourmandise toute simple ... merci</t>
+          <t>Great environment, awesome food.</t>
         </is>
       </c>
       <c r="B69" s="2">
-        <v>45136</v>
+        <v>42863</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1645,29 +1650,31 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Excellent sandwich poulet</t>
+          <t>Accueil sympathique, mais peu de place pour déjeuner sur place, c'est dommage</t>
         </is>
       </c>
       <c r="B70" s="2">
-        <v>43540</v>
+        <v>43765</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Du choix et bon rapport qualité prix</t>
+          <t>Personnel très à l'écoute...très professionnel...
+Établissement propre. Grand choix ...
+Je recommande.</t>
         </is>
       </c>
       <c r="B71" s="2">
-        <v>44222</v>
+        <v>45259</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1680,6 +1687,101 @@
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
+        <is>
+          <t>Bon et prix corrects</t>
+        </is>
+      </c>
+      <c r="B72" s="2">
+        <v>42825</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Apprenez à votre personnel de respecter la clientèle,j'ai fait une commande,je lui donne un billet de 50€,elle fait la tête,sous prétexte elle n'a pas de money.
+Je ne suis pas responsable si vous n'avez pas de money.
+La miss m'a agressé avec son regard et son comportement.
+Je suis parti sans ma commande,c'est du jamais vu.
+Merci la croissanterie grand place.</t>
+        </is>
+      </c>
+      <c r="B73" s="2">
+        <v>45242</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Une visite en ce lundi de Pentecôte, mauvais accueil et commande expédiée nous avons dû réclamer les couverts. Le fondant aurait mérité un p'tit coup de chauffe. Les produits servis étaient corrects. Autre chose, se moucher et ne pas se laver les mains c'est moyen niveau hygiène. Désolé de vous avoir dérangé.</t>
+        </is>
+      </c>
+      <c r="B74" s="2">
+        <v>43626</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>De la baguette, à la pizza, ainsi que petits gâteaux tout est bon ?</t>
+        </is>
+      </c>
+      <c r="B75" s="2">
+        <v>44387</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Idéalement placé au centre ville de Montpellier.
+Un petit rafraîchissement serait a envisager.</t>
+        </is>
+      </c>
+      <c r="B76" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>De l'extérieur on dirait une petite boulangerie o acheter son sandwich et partir. Mais à l'intérieur on aura un grand choix de sandwiches, salades, pizzas, desserts...
 On peut choisir aussi une de ses avantageuses formules.
@@ -1688,103 +1790,11 @@
 L'endroit n'est pas calme, il reste une boulangerie dans une zone de activités,pas un resteau. Mais c'est propre, bon qualité-prix.</t>
         </is>
       </c>
-      <c r="B72" s="2">
+      <c r="B77" s="2">
         <v>43257</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>3</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Personnel très agréable,  rapide.
-Café.  Croissant  etc !!! Très bonne qualité.</t>
-        </is>
-      </c>
-      <c r="B73" s="2">
-        <v>44099</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Une serveuse qui se cure les dents puis vous sert un  complet thon. Le niveau hygiène est à revoir car ça ne fait pas propre du tout (personnel qui fait sale) environnement et table extérieures sale ......Lorsque l'on rentre on se demande si en sortant on ne va  pas se faire agresser.</t>
-        </is>
-      </c>
-      <c r="B74" s="2">
-        <v>44357</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Sandwich très bon mais en revanche le vendeur était très peu patient et a tendance moqueur…</t>
-        </is>
-      </c>
-      <c r="B75" s="2">
-        <v>44791</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Prix et choix corrects</t>
-        </is>
-      </c>
-      <c r="B76" s="2">
-        <v>43503</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>J’ai voulu allez m’acheter un sandwich aujourd'hui le lundi 4 septembre vers 14 h15 une jeune fille avec un carrée derrière le controire hyper pas professionnel préfère raconter des potins avec ces 2 autre collègue  que de prendre des commande vraiment pas professionnel l’équipe ce jour . Expérience dégradante sa serais bien d’être plus professionnel svp .
-Je reviendrai pas ..</t>
-        </is>
-      </c>
-      <c r="B77" s="2">
-        <v>45173</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1795,113 +1805,106 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bonne boulangerie, pas exceptionnel mais c'est ce qu'on attend d'une brasserie.</t>
+          <t>Il sont extrêmement rapide au service.
+Beaucoup de choix.</t>
         </is>
       </c>
       <c r="B78" s="2">
-        <v>42920</v>
+        <v>43168</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>accueil plus que limité, hôtesse désagréable,  ne nous laisse pas le temps de choisir, en nous mettant la pression, surtout au moment où notre fille choisis son dessert.
-résultat pas très aimable...
-qualité... ça vole pas haut, bonjour je voudrais un panini viande haché,  réponse froid ou réchauffe ??? (heuuuu question bête,  réponse bête ) je répond chaud... je le mange, résultat l'estomac retourné toute la journée,  idem pour ma femme sur un autre type de panini (3 fromages).
-bref , je passe mon chemin.</t>
+          <t>Je suis satisfaite des produits vendus dans ce magasin. Le pain est bon et en plus on peut choisir la cuisson que l'on préfère... Les petits pains éclats Choco noir ou blanc sont super bon pour le goûter.
+Après plusieurs années dans votre enseigne,on vient de découvrir qu'il y a une carte de fidélité !!! Pourquoi ne la proposez vous pas ?</t>
         </is>
       </c>
       <c r="B79" s="2">
-        <v>44584</v>
+        <v>45249</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>surgelé + Dégueulasse à 2 euros la viennoiserie
-STOP l'ARNAQUE !!!!
-je prefere soutenir un boulanger de quartier, surtt en ce moment, que ces grands groupes qui se foutent de la gueule du monde
-PASSEZ VOTRE CHEMIN
-0 ETOILE POUR MOI</t>
+          <t>J’ai acheté en fin de journée, un donuts à 2,20 € chez eux. Le prix est justifié par rapport à la taille mais malheureusement je tiens à signaler que je ne trouve pas ça correct de sentir et de voir que le donuts est rester à la chaleur toute la journée. à se demander si les vitrines sont réfrigérée ? Boulangerie spacieuse qui donne envie de consommer sur place malgré tout. je retenterai l’expérience pour éviter d’être bloqué sur la première, mais je viendrai avec beaucoup d’appréhension</t>
         </is>
       </c>
       <c r="B80" s="2">
-        <v>44931</v>
+        <v>45086</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Personnel gentil et serviable, vitrine bien garnie. Je suis allée déjeuner avec enthousiasme. Malheureusement je suis maintenant très malade. Extremement mal aux intestins et le reste qui va avec...
-S'il vous plaît, vérifiez vos DLC.</t>
+          <t>Au top !! Juste un manque de table en extérieur</t>
         </is>
       </c>
       <c r="B81" s="2">
-        <v>45212</v>
+        <v>43990</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Prix correct et bons produits</t>
+          <t>Facile de se garer, bon rapport qualité-prix servie par un personnel agréable.</t>
         </is>
       </c>
       <c r="B82" s="2">
-        <v>43629</v>
+        <v>44085</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Le boulanger d'aujourd'hui ne fait aucune attention à l'hygiène avec ça lame de cutter dans ça bouche, celle qui lui sert de tracer les baguettes...flûte...etc !!!
-Inadmissible surtout qu'il est en avant première devant les clients !!</t>
+          <t>Bon acceuil est bon pain</t>
         </is>
       </c>
       <c r="B83" s="2">
-        <v>44734</v>
+        <v>43287</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1912,261 +1915,250 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ouvert même le dimanche
-Personnel très sympathique
-Et leur kebab est très honnête</t>
+          <t>Bon accueil et bonne qualité des produits</t>
         </is>
       </c>
       <c r="B84" s="2">
-        <v>42667</v>
+        <v>43571</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Personnels sympa...</t>
+          <t>Accueil chaleureuse même à 6h30 du matin, beaucoup d'énergie pour satisfaire tout le monde rapidement. Les pâtisseries sont toujours excellentes. Je ne suis jamais déçue.</t>
         </is>
       </c>
       <c r="B85" s="2">
-        <v>43197</v>
+        <v>44902</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Super boulangerie, super prix, vraiment rien a redire... mais je voudrais qu'ils fassent des brioches aux pépites de chocolat?, c'est pour moi leur seul manque</t>
+          <t>Produits excellents et salle conviviale</t>
         </is>
       </c>
       <c r="B86" s="2">
-        <v>42726</v>
+        <v>43701</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Impossible de choisir correctement lors des heures de pointes. Le personnel nous met la pression. C'est dommage car nous achetons moins .
-Sinon de très bons produits à prix accessibles.
-Équipe très aimable en dehors des heures de pointe.</t>
+          <t>Cela fait des années que je viens à la Croissanterie de Limoges, je n'ai jamais été déçue par l'accueil,  les choix proposés et adaptés en fonction des saisons.
+Je recommande !</t>
         </is>
       </c>
       <c r="B87" s="2">
-        <v>44956</v>
+        <v>44926</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Idéalement placé au centre ville de Montpellier.
-Un petit rafraîchissement serait a envisager.</t>
+          <t>Éclair fraise exceptionnelle ?</t>
         </is>
       </c>
       <c r="B88" s="2">
-        <v>43764</v>
+        <v>43655</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Super boulangerie j'adore leurs pain surtout les pains d'ange zux céréales</t>
+          <t>Une équipe très agréable et des chaussons aux pommes délicieux ! Je recommande !!</t>
         </is>
       </c>
       <c r="B89" s="2">
-        <v>43671</v>
+        <v>44896</v>
       </c>
       <c r="C89">
         <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Viennoiseries industrielles congelées misent au four....
-Loin d'être aussi qualitative qu'une vraie boulangerie viennoiseries.</t>
+          <t>Excellente boulangerie , géante, très large choix très propre service rapide je recommande à 100%</t>
         </is>
       </c>
       <c r="B90" s="2">
-        <v>43871</v>
+        <v>44501</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Si vous avez vraiment très faim et que vous devez prendre quelque chose allez y.
-Mais vraiment sinon allez ailleurs.
-C’est bon mais y a toujours un petit problème. Le pain un peu trop dur…
-Par contre les workers sont géniales toujours sympathiques avec le sourire.</t>
+          <t>La boulangerie Ange de champagne est excellente !
+Que ce soit pour les viennoiseries ou encore les menus vous aurez le choix. Tout est bon aussi donc foncer les yeux fermés la qualité est au rendez-vous !
+Niveau prix là aussi je trouve que la boulangerie est très concurrente et vous repartirez les mains pleines sans vous ruiner.
+Adresse que je recommande si vous passez dans le coin ou juste pour manger un bout le midi pendant le boulot.</t>
         </is>
       </c>
       <c r="B91" s="2">
-        <v>44388</v>
+        <v>44884</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Très bonne accueil et l’es sandwiche au poulet son extrait ! merci à la petite brune au noms de Morgane ce fut un plaisir !</t>
+          <t>Fuyez !! Je ne comprends pas qu'il y ait de bons avis. Les mouches et moucherons tourbillonnent sur les pains, pizza, sandwich et quiches. Nous avons pris 2 sandwich ignobles secs sans aucune sauce avec des feuilles de salade posées, du poulet douteux et des rondelles de tomates insipides
+Personnel agréable neanmoins</t>
         </is>
       </c>
       <c r="B92" s="2">
-        <v>45198</v>
+        <v>44387</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>? Excellent,
-Etale très fournis, ????????
-Personnels sympa et Souriant, ?
-Étoile manquante = Parking difficile,
-Je recommande,</t>
+          <t>J'ai commandé des sandwichs, la mie câline c'est non seulement trompé dans un des sandwichs mais il en manqué également un. J'ai appelé pour avoir le sandwich manquant, ils m'ont fait toutes les excuses possibles (Je vous entends pas, je comprends pas votre nom, je ne retrouve pas votre commande...) Un foutage de geule comme on en voit rarement! Ps: l'excuse du dimanche matin est vraiment facile.</t>
         </is>
       </c>
       <c r="B93" s="2">
-        <v>44159</v>
+        <v>44584</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Pas trop mal, mais un peu cher et manque des tables pour quatre personnes. Le personnel est sympathique par contre la noisette est froide.</t>
+          <t>Jolie boulangerie, ce druzes sympa, c est bon et pris très raisonnables</t>
         </is>
       </c>
       <c r="B94" s="2">
-        <v>43887</v>
+        <v>43511</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bon sandwichs,bons desserts et bonnes formules a petit prix :)
-La salle est assez sympa et les vendeurs (es) toujours sympathique ( souriants) même  face a certains clients malpolis.
-De plus la  boulangerie  est bien située.
-Alors  je vous la recommande  ;)</t>
+          <t>De bons produits et pas cher</t>
         </is>
       </c>
       <c r="B95" s="2">
-        <v>43195</v>
+        <v>43179</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Très bien reçue, personnel agréable et produits consommables impeccables.</t>
+          <t>Les meilleurs! Très bon accueil et service!</t>
         </is>
       </c>
       <c r="B96" s="2">
-        <v>43862</v>
+        <v>45067</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mauvaise qualité, tricherie sur les produits distributeur de café mal réglé (plus d'eau que du café) pour finir c trop cher pour un produit surgelé. Toilette pas propre. Personnels fainéants.</t>
+          <t>Gérance à remplacer aucune compréhension pour une simple sauce veut en faire qu à sa tête je ne remet plus jamais mes pieds ici dommage que l'encaissement c fais avant.</t>
         </is>
       </c>
       <c r="B97" s="2">
-        <v>43859</v>
+        <v>44095</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2180,216 +2172,213 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Très bon accueil, bon produits variés et très accessible ? je recommande.</t>
+          <t>Ce n'est pas propre.</t>
         </is>
       </c>
       <c r="B98" s="2">
-        <v>43143</v>
+        <v>43157</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pain délicieux, service efficace..</t>
+          <t>nous pouvons prendre un café tous les matins</t>
         </is>
       </c>
       <c r="B99" s="2">
-        <v>43701</v>
+        <v>43511</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Inutile de présenter Ange. Si la qualité des produits vendus n'est pas en cause, c'est au niveau de l'organisation entre 12h et 14h  que cela laisse à désirer. Ne compter pas  ""ravitailler"" rapidement dans ce créneau... (Où justement on vient pour être servi rapidement).
-Ange Champagne au Mont d'or semble être victime de son succès !</t>
+          <t>Je commande un Nestea en livraison Deliveroo et je reçois un Ice Tea. Insupportable les restos qui font ça. Sans oublier les sandwichs avec du pain pas frais mais plutôt de la veille. Qualité médiocre passez votre chemin.</t>
         </is>
       </c>
       <c r="B100" s="2">
-        <v>44105</v>
+        <v>43255</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Travaillant dans la galerie de Grand Place je suis passé aujourd'hui pour un Toogoodtogo, j'ai été agréablement surpris par l'accueil (ce qui se fait rare), l'équipe est sympathique, les produits sont bons, je reviendrais hors Toogoodtogo, je recommande vivement =)</t>
+          <t>Toujours trop de monde a midi et parking apocalyptique. C'est d'un désagréable.</t>
         </is>
       </c>
       <c r="B101" s="2">
-        <v>44522</v>
+        <v>43547</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Très bon accueil et beaucoup de choix merci</t>
+          <t>Très mauvais accueil, sous prétexte qu'il y a la queue on doit vite savoir quoi prendre. Une des dames était vraiment désagréable. Un café viennois ""Grand"" qui une fois la chantilly retirée ne remplit à peine que la moitié du gobelet, du coup c'est quoi un petit ?
+Toilettes sales, pas de papier toilette ni savon et étage pas balayé.</t>
         </is>
       </c>
       <c r="B102" s="2">
-        <v>44029</v>
+        <v>44868</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sandwichs assez bons et tarifs abordables.</t>
+          <t>3 saveurs de jus pas disponibles et en plus la personne qui nous a servi n'était pas agréable.</t>
         </is>
       </c>
       <c r="B103" s="2">
-        <v>43700</v>
+        <v>43861</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ce jeudi 9 février vers 18h30, je me suis rendue à la croissanterie ayant réserver un too good to go, l’heure de collecte étant de 18h à 19h. La caissière a refusé de me le servir en étant en plus désagréable car elle ferme à 18h30 le temps de ranger pour je cite « ne pas être en retard ». Donc je suis repartie bredouille sans mon too good to go en ayant payé 4€ + 50 centimes de parking pour rien. Première fois que cela m’arrive.</t>
+          <t>Accueil sympa mais produits décevants</t>
         </is>
       </c>
       <c r="B104" s="2">
-        <v>44966</v>
+        <v>43534</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bonne boulangerie, service rapide, grand choix de produit réapprovisionné ment régulier donc on peu profiter d'un large choix tout au lond de la journée ou presque</t>
+          <t>Café allongé 1,50€ . Lieu agréable avec déco sympa pour prendre un café ou un petit dessert</t>
         </is>
       </c>
       <c r="B105" s="2">
-        <v>43368</v>
+        <v>43217</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ce n'est pas qu'une boulangerie...
-C'est une famille, un rassemblement de bonne humeur et de bon produit, je suis entrain d'assomer actuellement le calini  (et non panini) mexicain, une pur folie. Un voyage.
-Gros remerciements à Farid qui a tt suite compris notre commande  !!!!
-Je recommande</t>
+          <t>Équipe dynamique  organisée.  Bons produits. Toilettes d'une hygiène déplorable.</t>
         </is>
       </c>
       <c r="B106" s="2">
-        <v>45105</v>
+        <v>43461</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Super croissanterie. Beaucoup de place pour s'asseoir donc très bien pour déjeuner en groupe.</t>
+          <t>Tres bon rapport qualité prix!!! Des formules vraiment top et vraiment des produits bon? exemple formule 22euros pour 2 tartes ( un flan et une tarte citron vert) 4 baguettes et 10 viennoiseries et vraiment tres bon!!! Des que je suis dans les parages je reviens!! Bonne continuation</t>
         </is>
       </c>
       <c r="B107" s="2">
-        <v>43367</v>
+        <v>44283</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rapidité de services mets délicieux accueil agréable excellent pour de la restauration rapide à recommander</t>
+          <t>Sandwich au pain j'ai bien dit au pain  le reste tu cherche et la terrasse était très sale</t>
         </is>
       </c>
       <c r="B108" s="2">
-        <v>43292</v>
+        <v>45131</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Boulangerie très simpa. Pour le personnel continuer comme ça dans joie et la bonne humeur , les prix sont à la hauteur de vos produits. Pour les clients mécontent facile de critiquer derrière votre téléphone venez servir depuis 5h du matin et vous allez comprendre surtout dans le commerce. Et  pour kaniard au ki aller travail avant et passe balayer devant ton porte avant</t>
+          <t>Très bon prix mais produits de qualité grandes marques</t>
         </is>
       </c>
       <c r="B109" s="2">
-        <v>44960</v>
+        <v>43838</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2400,146 +2389,140 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Accueil agréable et sur le chemin à pied vers la gare Montparnasse !</t>
+          <t>L accueil est chaleureux. Les pépitos sont excellents et les viennoiseries sont excellentes. Je recommande vivement.</t>
         </is>
       </c>
       <c r="B110" s="2">
-        <v>43857</v>
+        <v>44384</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tips pour un business model rentable :
-- mettre un peu de salade dans un pain
-- rajouter une pincée de feta sur le côté pour la déco
-- appeler ça un sandwich méditerranéen
-- le vendre 5,50e</t>
+          <t>Très sale. Hygiène déplorable : entre les guêpes qui tournent sur les viennoiseries dans la vitrine et la souris qu on a vu plusieurs fois passer derrière les caisses, je me demande ce qu attendent les services sanitaires pour intervenir...</t>
         </is>
       </c>
       <c r="B111" s="2">
-        <v>45172</v>
+        <v>44853</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Service impeccable, équipe au top ! Surtout Carla c'est la best il lui faut une prime d'employée du mois direct</t>
+          <t>endroit bien placé pour se rafraichir, boire un café ou prendre un goûter après son shopping :) Service rapide, des places en terrasse et en intérieur</t>
         </is>
       </c>
       <c r="B112" s="2">
-        <v>44964</v>
+        <v>44423</v>
       </c>
       <c r="C112">
         <v>5</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2€ 40 un cookie 3 chocolat j’appelle ça du vole !!!</t>
+          <t>Les prix sont faits pour des Américains et les sandwichs sont fades.</t>
         </is>
       </c>
       <c r="B113" s="2">
-        <v>45079</v>
+        <v>44125</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Très bien servi ....avec du personnel.tres souriant et compétent.
-..j aime y aller ......car il y un très grand choix...</t>
+          <t>Large choix de pains et de formule de bonne qualité</t>
         </is>
       </c>
       <c r="B114" s="2">
-        <v>43619</v>
+        <v>43677</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Très bon.
-Personnel agréable et vite servi</t>
+          <t>Accueil sympathique, établissement bien placé dans le centre ville !</t>
         </is>
       </c>
       <c r="B115" s="2">
-        <v>44055</v>
+        <v>44869</v>
       </c>
       <c r="C115">
         <v>5</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>L'amabilité du personnel laisse à désirer...</t>
+          <t>Plus coûteux que la concurrence et pourtant c'est moins bon et moins copieux</t>
         </is>
       </c>
       <c r="B116" s="2">
-        <v>44406</v>
+        <v>43557</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>caissière trop orgueilleuse et stupide</t>
+          <t>Bel accueil et une très belle initiative ??</t>
         </is>
       </c>
       <c r="B117" s="2">
-        <v>43506</v>
+        <v>44618</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2550,14 +2533,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Exelante boulangerie personne aux top très bonne qualité</t>
+          <t>Très grand choix et très bon juste un peu cher pour une grosse enseigne !</t>
         </is>
       </c>
       <c r="B118" s="2">
-        <v>43746</v>
+        <v>44913</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2568,89 +2551,86 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bien dans l'ensemble.mais escalier dangereux.</t>
+          <t>Très bonne boulangerie. Que ce soit du côté viennoiseries ou pains, la qualité est au toujours mise en avant.</t>
         </is>
       </c>
       <c r="B119" s="2">
-        <v>45246</v>
+        <v>44763</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Très bon accueil, bons produits,</t>
+          <t>Très bonne qualité, service ultra rapide, on pourra juste regretter le temps d'encaissement aux heures de pointe. Ça débite ! La commande en ligne et le retrait à heure choisie est un gros plus, depuis l'application dédiée Mon Ange. Nickel.</t>
         </is>
       </c>
       <c r="B120" s="2">
-        <v>43606</v>
+        <v>43340</v>
       </c>
       <c r="C120">
         <v>5</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Je passe quasiment chaque matin prendre un café et un croissant à la Croissanterie de la Défense, le service est IMPECCABLE, le personnel du matin est rapide, efficace, souriant et prend grand soin de ses clients. En particulier Kaïna qui est la à chacun de mes passages et qui est extrêmement sympathique et très bonne commerçante! C'est très agréable pour bien commencer sa journée de travail!</t>
+          <t>Bon rapport qualité prix, boulangerie d'une jolie taille, bien accueilli, café moyen.</t>
         </is>
       </c>
       <c r="B121" s="2">
-        <v>44837</v>
+        <v>43602</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Très déçue par l'accueil, ou plutôt le non accueil des 2 serveuses en retard!
-Nous devions prendre de quoi petit déjeuner dans notre train en départ pour 7h30. Nous avons attendu de 7h à 7h20 qu'on daigne nous servir alors que ça devait ouvrir à 7h.
-Une file de 10 personnes qui attendaient pendant que les serveuses installaient avec 2 de tension et ne nous calculait meme pas. Beaucoup de gens sont partis exaspéré sans être servi.
-Nous sommes partis égal non servi. INADMISSIBLE encore plus pour un service en gare !!!</t>
+          <t>La vendeuse a oublié la boisson de mon menu et le cornet de ma glace était endommagé</t>
         </is>
       </c>
       <c r="B122" s="2">
-        <v>44773</v>
+        <v>44058</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Du choix et du frais.</t>
+          <t>Accueil toujours sympa, service rapide et des cadeaux réguliers grâce à la carte de fidélité. Mention spéciale aux incontournables cookies</t>
         </is>
       </c>
       <c r="B123" s="2">
-        <v>43239</v>
+        <v>43328</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2661,29 +2641,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Toujours très aimable</t>
+          <t>Accueil et service agréables. Salle climatisée et espace extérieur ombragé. Repas simple et correct en centre ville de Montpellier.</t>
         </is>
       </c>
       <c r="B124" s="2">
-        <v>43246</v>
+        <v>44748</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Serveuse sympathique, pâtisserie pas cher et de bonne qualité !</t>
+          <t>Merci pour ce délicieux cookie aux trois formages ?</t>
         </is>
       </c>
       <c r="B125" s="2">
-        <v>43013</v>
+        <v>44995</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -2697,34 +2677,32 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Il s'agit effectivement d'une chaîne mais l'accueil et le sourire sont au rdv les vendeuses prennent le temps pour chaque client ce qui n'est pas le cas partout
-En ce qui me concerne je manquerai pas d'y retourner dès que je serai à proximité surtout continuer comme ça ne perdez pas ce contact client et ce qui ne gâte rien c'est très bon autant le salé que le sucré
-À bientôt</t>
+          <t>J’ai été à la Croissanterie à l’étage et franchement le personnel et désagréable j’avais l’impression de les déranger durant leur conversation un service vraiment médiocre je recommande fortement la Croissanterie du bas</t>
         </is>
       </c>
       <c r="B126" s="2">
-        <v>44286</v>
+        <v>45084</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rien n’allais. J’avais l’habitude d’y manger tout les midis à ma pause mais là c’est terminé je n’y mettrais plus les pieds. Tout à l’heure j’y suis allé pour récupérer un TooGoodToGo, on m’a regarder de travers en rentrant comme si ils allaient fermé et que je dérangeais. Je dit tout de suite que c’est pour récupérer un TooGoodToGo on me dit que ça à été annulé (ce qui étais faux). On me demande de tout de même valider alors que je n’avais aucune certitude d’avoir mon panier. On fini par me faire le panier et encore là ça n’allait pas. On me fait bien comprendre que ça les faisait ch… parce que « il n’y aura pas assez de salé pour ce soir » comme si c’était ma faute, lorsque j’ai demander un sac j’ai eu le droit à des sourcils relevés et un long « eeuuuuuuuuuhhhh oui » comme si j‘étais culotté de demander alors que ce n’étais pas préciser sur l’application que je devais ramener un sac. Je suis reparti avec 2 sandwichs et un croissant. Pour un panier d’une valeur de 15€ j’espérais un peu plus.</t>
+          <t>Très bon ! Bon choix de sandwich et appétissants</t>
         </is>
       </c>
       <c r="B127" s="2">
-        <v>45212</v>
+        <v>43580</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2735,142 +2713,140 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Très décevant...les pâtisseries sont chères et trop "" industrielles"" au goût.
-Donc le rapport qualité-prix en souffre...
-Seul point positif : le service est toujours agréable grâce au personnel aimable.</t>
+          <t>Beaucoup de viande hallal sans le déclarer  dommage</t>
         </is>
       </c>
       <c r="B128" s="2">
-        <v>45236</v>
+        <v>43447</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Tres agréable et les produits sont excellents</t>
+          <t>Un accueil peu chaleureux, peu de choix, et on nous a virée de la salle à 18h alors qu’il y’a marqué fermeture à 20h sur le net.</t>
         </is>
       </c>
       <c r="B129" s="2">
-        <v>43119</v>
+        <v>45030</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pain de qualite qui meme congele conserve toutes ses qualités</t>
+          <t>Bonne boulangerie, l'accueil est sympathique,les cookies sont supers bons, la sandwicherie aussi, pour le pain c'est pas trop mal, le rapport qualité/prix est là.</t>
         </is>
       </c>
       <c r="B130" s="2">
-        <v>43738</v>
+        <v>44666</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Un peu cher mais bonnes prestations et menu intéressant</t>
+          <t>J ai adoré bon pain et pâtisserie accueil sympa</t>
         </is>
       </c>
       <c r="B131" s="2">
-        <v>43687</v>
+        <v>43517</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Tout est bon c est juste long car il y a du monde</t>
+          <t>C’est cher mais vraiment bon, dommage que la personne m’ayant servie n’ai pas été aimable</t>
         </is>
       </c>
       <c r="B132" s="2">
-        <v>43143</v>
+        <v>45037</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Tres agréable et délicieux</t>
+          <t>Ce jeudi 9 février vers 18h30, je me suis rendue à la croissanterie ayant réserver un too good to go, l’heure de collecte étant de 18h à 19h. La caissière a refusé de me le servir en étant en plus désagréable car elle ferme à 18h30 le temps de ranger pour je cite « ne pas être en retard ». Donc je suis repartie bredouille sans mon too good to go en ayant payé 4€ + 50 centimes de parking pour rien. Première fois que cela m’arrive.</t>
         </is>
       </c>
       <c r="B133" s="2">
-        <v>43784</v>
+        <v>44966</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tres propre, aimable et rapide</t>
+          <t>Rapport qualité prix correct, merci à Enzo pour son service au top ?</t>
         </is>
       </c>
       <c r="B134" s="2">
-        <v>43591</v>
+        <v>45134</v>
       </c>
       <c r="C134">
         <v>5</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Accueil agréable, bon produit</t>
+          <t>Le pain est bon mais les viennoiserie et Pâtisserie semble surgelés</t>
         </is>
       </c>
       <c r="B135" s="2">
-        <v>44414</v>
+        <v>44292</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2881,50 +2857,50 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pas du tout professionnel j'ai réservé sur l'application toogoodtogo, et une fois là-bas ils velveul pas me donner le coli !et au lieu de m'expliquer pourquoi ! Ils me demande d'envoyer un mail a toogoodtogo pour que je ne serai pas débité !</t>
+          <t>Du choix , des prix raisonnables les vendeuses sympathiques</t>
         </is>
       </c>
       <c r="B136" s="2">
-        <v>43551</v>
+        <v>43964</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Bon rapport qualité prix ??</t>
+          <t>endroit propre et correct. Serveuses professionnelles. salle à l'étage. pas d'ascenseur. belle vue sur l'opéra Garnier.</t>
         </is>
       </c>
       <c r="B137" s="2">
-        <v>44947</v>
+        <v>42689</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Une bonne tarte citron meringuée et du pain cuit à son goût personnel. Pas mal, si ce n'est la file d'attente parfois longue.</t>
+          <t>Très bon accueil et beaucoup de choix merci</t>
         </is>
       </c>
       <c r="B138" s="2">
-        <v>44491</v>
+        <v>44029</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2935,69 +2911,69 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pizza à prix raisonnable et très bonne et le pain est super bon</t>
+          <t>Les légendaires cookies de La Mie Câline servis avec le sourire de bon matin !! ?</t>
         </is>
       </c>
       <c r="B139" s="2">
-        <v>43482</v>
+        <v>43869</v>
       </c>
       <c r="C139">
         <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sympa et de plus, large choix proposé ?
-Équipe dynamique Je recommande ?</t>
+          <t>Trés bonne qualité</t>
         </is>
       </c>
       <c r="B140" s="2">
-        <v>43862</v>
+        <v>44404</v>
       </c>
       <c r="C140">
         <v>5</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Jolie boulangerie, ce druzes sympa, c est bon et pris très raisonnables</t>
+          <t>Prix corrects pour des sandwichs en gare, goûts variés et produits très bons.
+Les vendeuses de ce midi étaient de vrais rayons de soleil, merci ?</t>
         </is>
       </c>
       <c r="B141" s="2">
-        <v>43511</v>
+        <v>44727</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Les  chaînes en particulier françaises qui veulent faire de la viennoiserie et des sandwiches sont horribles. Tout est mauvais, mal préparé et cher. A éviter à tout prix.</t>
+          <t>Accueil très aimable, équipe au top, restaurant bon et spacieux. Je vous conseille fortement de déguster leur galette au calme à l’étage</t>
         </is>
       </c>
       <c r="B142" s="2">
-        <v>43781</v>
+        <v>44942</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3008,14 +2984,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Juste d'oranges pressées à un prix très correct. Bon petit déjeuner.</t>
+          <t>Aimable et pratique</t>
         </is>
       </c>
       <c r="B143" s="2">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3026,769 +3002,763 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Très mouves aceuill pluseurs fois la dame avec les lunettes me zap ?? je travail juste a côté. Aujourd'hui je suis passé vers 08h05 je regarde la vitre e et je atondez à me servir  Person nest venu ya un monsieur qui a rantre la dame avec les lunettes le apple at le servi à annt moi même si elle m'a vu elle pas venu me servir ?</t>
+          <t>Endroit sympa dans le petit complexe de casino</t>
         </is>
       </c>
       <c r="B144" s="2">
-        <v>43487</v>
+        <v>43220</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Très bon accueil, merci à Louann et Enzo! Ils sont très souriant et très humain !
-Nous sommes juste venues nous rafraîchir mais nous reviendront pour manger :)</t>
+          <t>Déçu!! J’ai pris un sandwcih poulet helal et oeuf avec tomate était congelé !! Plus jamais je mangerai là-bas</t>
         </is>
       </c>
       <c r="B145" s="2">
-        <v>45132</v>
+        <v>44813</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Commande de 12 pizza très bonnes</t>
+          <t>Rapport qualité/ prix correct. Personnel vraiment très agréable.. Mais quel dommage que nous soyons obligés d'utiliser; même quand nous consommons sur place; des couverts à usage unique.</t>
         </is>
       </c>
       <c r="B146" s="2">
-        <v>44823</v>
+        <v>43723</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>Brioche Doree</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
-        <is>
-          <t>Très mauvais accueil, sous prétexte qu'il y a la queue on doit vite savoir quoi prendre. Une des dames était vraiment désagréable. Un café viennois ""Grand"" qui une fois la chantilly retirée ne remplit à peine que la moitié du gobelet, du coup c'est quoi un petit ?
-Toilettes sales, pas de papier toilette ni savon et étage pas balayé.</t>
-        </is>
-      </c>
-      <c r="B147" s="2">
-        <v>44868</v>
-      </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Tres bon rapport qualité prix!!! Des formules vraiment top et vraiment des produits bon? exemple formule 22euros pour 2 tartes ( un flan et une tarte citron vert) 4 baguettes et 10 viennoiseries et vraiment tres bon!!! Des que je suis dans les parages je reviens!! Bonne continuation</t>
-        </is>
-      </c>
-      <c r="B148" s="2">
-        <v>44283</v>
-      </c>
-      <c r="C148">
-        <v>5</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Acheté hier soir, en ouvrant la boite je m'aperçois qu'il manque une partie du gâteau ainsi que la framboise</t>
-        </is>
-      </c>
-      <c r="B149" s="2">
-        <v>44976</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Alors je peux pas donner une bonne note,  prise de commande ou clairement la serveuse se fout de nous à 2 reprises,  irrespectueux.
-Je recommande St Jean de monts,  mais surtout pas celle de Challans.</t>
-        </is>
-      </c>
-      <c r="B150" s="2">
-        <v>44789</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Personnel agréable,  souriant</t>
-        </is>
-      </c>
-      <c r="B151" s="2">
-        <v>44424</v>
-      </c>
-      <c r="C151">
-        <v>4</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Aucun accueil
-Vendeuse désagréable.
-Pourquoi être dans le commerce .
-Je déconseille cette enseigne.</t>
-        </is>
-      </c>
-      <c r="B152" s="2">
-        <v>43881</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Équipe dynamique  organisée.  Bons produits. Toilettes d'une hygiène déplorable.</t>
-        </is>
-      </c>
-      <c r="B153" s="2">
-        <v>43461</v>
-      </c>
-      <c r="C153">
-        <v>3</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Plaisir des yeux et des papilles, c'est beau et c'est bon. Sans se ruiner</t>
-        </is>
-      </c>
-      <c r="B154" s="2">
-        <v>43880</v>
-      </c>
-      <c r="C154">
-        <v>5</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Bonjour je voudrai savoir est-ce que quand on effectue le paiement de la cb c'est marqué embellie ou dureripart ?</t>
-        </is>
-      </c>
-      <c r="B155" s="2">
-        <v>44368</v>
-      </c>
-      <c r="C155">
-        <v>2</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Petite boulangerie franchisée en plein centre avec un choix de produits (livrés le matin et cuits tout le long de la journée) très correct et au bon goût.
-Ouvert relativement tard et le week-end, ce qui est très avantageux sachant que la majorité des boulangeries du centre-ville ferment le dimanche (??).</t>
-        </is>
-      </c>
-      <c r="B156" s="2">
-        <v>43788</v>
-      </c>
-      <c r="C156">
-        <v>5</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>20 min pour servir 5 clients, 1 seule vendeuse alors que la file d'attente est longue et une vendeuse peu souriante...
-N'y aller que lorsque c'est vide, ils sont pas pressés.</t>
-        </is>
-      </c>
-      <c r="B157" s="2">
-        <v>44856</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Viennoiserie granité... accueil super, vendeuse au top. Pour un petit encas ou un café... terrasse couverte.</t>
-        </is>
-      </c>
-      <c r="B158" s="2">
-        <v>42980</v>
-      </c>
-      <c r="C158">
-        <v>5</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Bonne pâtisserie mais plus cher que la moyenne</t>
-        </is>
-      </c>
-      <c r="B159" s="2">
-        <v>44876</v>
-      </c>
-      <c r="C159">
-        <v>4</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Accueil,ambiance et prix formidables.</t>
-        </is>
-      </c>
-      <c r="B160" s="2">
-        <v>43824</v>
-      </c>
-      <c r="C160">
-        <v>4</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Très bien. Personne souriante. Bon service.</t>
-        </is>
-      </c>
-      <c r="B161" s="2">
-        <v>43676</v>
-      </c>
-      <c r="C161">
-        <v>5</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Personnel sympa, les pains sont bons</t>
-        </is>
-      </c>
-      <c r="B162" s="2">
-        <v>43806</v>
-      </c>
-      <c r="C162">
-        <v>4</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mais quel dommage, hier en fin de journée, j'ai un petit creux je décide de prendre un petit encas à la croissanterie...mais malheureusement il était 18h50 et à cette heure-ci l'agréable vendeuse a refusé  de me servir car elle fermait...
-Je comprends tout à  fait qu'elle ferme, mais la politesse est à la portée de tous...du moins presque.
-Je remercie  l'accueil chaleureux qui m'a été réservé à la boulangerie Paul.</t>
-        </is>
-      </c>
-      <c r="B163" s="2">
-        <v>44971</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Ce n’est pas une boulangerie mais un terminal de cuisson. Les pains et viennoiserie y sont juste cuits, pas fabriqués.  Bref, industriel.</t>
-        </is>
-      </c>
-      <c r="B164" s="2">
-        <v>43174</v>
-      </c>
-      <c r="C164">
-        <v>2</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Un petit pain au chocolat taxé à 1,60£ en plus hyper troué , revoyez vos articles en qualité et en prix
-Hyper déçu</t>
-        </is>
-      </c>
-      <c r="B165" s="2">
-        <v>44460</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Sandwich au saumon minuscule, qualité vraiment limite, on est sur du sandwich d autoroute... aucun plaisir pour ma part, quand au tarif... c'est clairement trop élevé...</t>
-        </is>
-      </c>
-      <c r="B166" s="2">
-        <v>43805</v>
-      </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Les serveurs sont très sympas. J'ai mangé un bon mini sandwich au chèvre et tomate c'était bon .</t>
-        </is>
-      </c>
-      <c r="B167" s="2">
-        <v>43120</v>
-      </c>
-      <c r="C167">
-        <v>5</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Des pains à profusion, sandwichs, viennoiserie ! Miam que du bon (possibilité de se restaurer sur place).</t>
-        </is>
-      </c>
-      <c r="B168" s="2">
-        <v>43833</v>
-      </c>
-      <c r="C168">
-        <v>5</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Ça va... pour de l'industriel</t>
-        </is>
-      </c>
-      <c r="B169" s="2">
-        <v>43771</v>
-      </c>
-      <c r="C169">
-        <v>4</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>TB rapport qualité prix pour un café pain chocolat. L endroit n est pas du tout glamour mais c est sympa de pouvoir petit déjeuner avant de prendre le car.</t>
-        </is>
-      </c>
-      <c r="B170" s="2">
-        <v>43808</v>
-      </c>
-      <c r="C170">
-        <v>4</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Situé dans un endroit stratégique plus des vendeurs et vendeuses sympas ça ne peut donner que du bien.</t>
-        </is>
-      </c>
-      <c r="B171" s="2">
-        <v>45118</v>
-      </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Le prix est incroyablement cher</t>
-        </is>
-      </c>
-      <c r="B172" s="2">
-        <v>45186</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Bons produits, bon accueil, prix un peu élevés</t>
-        </is>
-      </c>
-      <c r="B173" s="2">
-        <v>43271</v>
-      </c>
-      <c r="C173">
-        <v>4</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Alors ici c'est le top</t>
-        </is>
-      </c>
-      <c r="B174" s="2">
-        <v>43228</v>
-      </c>
-      <c r="C174">
-        <v>5</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Temps de service beaucoup trop long. Si les gens vienne acheter des sandwichs pour le déjeuner, c’est sûrement qu’ils n’ont pas le temps. Hors la en dehors du temps d’attente, c’est le temps de service qui est à revoir. Le vendeur ne sait même pas ce qu’il vend, il faudrait revoir l’organisation.
-Paiement en espèce indisponible et précisé uniquement au moment de payer. Ridicule.</t>
-        </is>
-      </c>
-      <c r="B175" s="2">
-        <v>44759</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Passage ce jour à la Mie câline.
-Qui a bien changer ! La «  responsable » du jour hyper hautaine et désagréable. Ce permet de nous interpeller d’une manière désagréable. Pour quelque chose qui n’es pas de notre
-Le management est à revoir. Les clients sont pris de haut devant tout le monde.
-Les serveurs rigolent entre eux … et l’organisation est déplorable. Face à un souci de clientèle. Toute l’équipe jubile.</t>
-        </is>
-      </c>
-      <c r="B176" s="2">
-        <v>45065</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Très bonne boulangerie avec beaucoup d'offres et de promos ainsi que des produits de qualités et des vendeurs très accueillants.</t>
-        </is>
-      </c>
-      <c r="B177" s="2">
-        <v>44933</v>
-      </c>
-      <c r="C177">
-        <v>4</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Le pain et les pâtisseries sont bons.
-Le personnel est agréable rien à redire.</t>
-        </is>
-      </c>
-      <c r="B178" s="2">
-        <v>43879</v>
-      </c>
-      <c r="C178">
-        <v>5</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Delicious Taste, little bit Expensive</t>
-        </is>
-      </c>
-      <c r="B179" s="2">
-        <v>44507</v>
-      </c>
-      <c r="C179">
-        <v>5</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Brioche Doree</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Leur maxi pain au chocolat est super bon et me fait un bien fou tous les matins au petit dej... faudrait juste qu'ils soient un peu plus attentifs aux personnes ayant la priorité, les femmes enceintes comme moi, les personnes âgées et les handicapés...</t>
-        </is>
-      </c>
-      <c r="B180" s="2">
-        <v>43557</v>
-      </c>
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Très belle boulangerie, les produits sont superbes et frais. Le personnel est sympathique et à l'écoute. Nous reviendrons.</t>
-        </is>
-      </c>
-      <c r="B181" s="2">
-        <v>45215</v>
-      </c>
-      <c r="C181">
-        <v>5</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Ange Boulangerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Des magasins toujours bien placés, qualité des produits constante.</t>
-        </is>
-      </c>
-      <c r="B182" s="2">
-        <v>43531</v>
-      </c>
-      <c r="C182">
-        <v>4</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Bons produits, personnels agréables malgré les avis négatifs. Je recommande sauf les salades où il y a pratiquement que des feuilles de salade. Les sandwiches et desserts sont très bons.</t>
-        </is>
-      </c>
-      <c r="B183" s="2">
-        <v>43705</v>
-      </c>
-      <c r="C183">
-        <v>5</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>la croissanterie</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Je n ai pas aimé que le me saute dessus dès que j avais mis un Pied dans la boutique pas eu trop le temps de choisir.
-Donc  j ai pris la première chose que j avais devant moi .
-Pas eu le temps de regarder la vitrine  .</t>
-        </is>
-      </c>
-      <c r="B184" s="2">
-        <v>44860</v>
-      </c>
-      <c r="C184">
-        <v>3</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>La mie Caline</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
         <is>
           <t>La Qu'elles Ha de Boulangerie ANGE Celles de Rillieux ? Où bien Celle de Dardilly ? Peut importe les Deux Boulangeries pâtisseries ANGE ??? Bien D'ailleurs toutes les Boulangeries pâtisseries ANGE Qu'il y a dans le monde Sont bien Elhmdoulillah Côté Qualité et Prix Toujourrr Parrreil de bonnes et belles Propre 'Halal certaines Boulangeries pâtisseries ANGE ? ça reste Quand même de Bonnes Boulangeries pâtisseries ANGE ??☮️ inch'Allah
 Cordialement ?? Salem oùAlaycoum
 Mr Bouzait Hamid ?</t>
         </is>
       </c>
+      <c r="B147" s="2">
+        <v>44675</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Je viens souvent prendre mon petit déjeuner ?? acceuil excellent et le pain est très bon ????</t>
+        </is>
+      </c>
+      <c r="B148" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Service très sympa. Et leur café est très bon</t>
+        </is>
+      </c>
+      <c r="B149" s="2">
+        <v>45295</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Lieu correct. Le service est impersonnel et expéditif au possible, le pain est moyen et les pâtisseries également mais ces échoppes restent très utiles dans certains cas.
+Attention, loin de moi l'idée de dénigrer la marque, je comprends parfaitement l'idée de devoir faire passer la quantité devant la qualité, surtout vu la demande/jour que doivent supporter les ""boulangeries"" Mie Câline mais je reste tout-de-même un fervent protecteur des ""vraies"" boulangeries.
+En conclusion, je recommanderai ce magasin que en ultime ressort, et ce sans grande conviction.</t>
+        </is>
+      </c>
+      <c r="B150" s="2">
+        <v>43826</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Service rapide (malgré beaucoup de monde) un choix important de sandwich, desserts, pains... a prix raisonnable. J'adore cette boulangerie !!!</t>
+        </is>
+      </c>
+      <c r="B151" s="2">
+        <v>44237</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Les sandwichs sont plutôt variés et souvent très bons</t>
+        </is>
+      </c>
+      <c r="B152" s="2">
+        <v>43098</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>caissière trop orgueilleuse et stupide</t>
+        </is>
+      </c>
+      <c r="B153" s="2">
+        <v>43506</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Je suis déjà venue manger sur place un croissant et un chocolat mais les prix  ne m’avaient pas étonné. C’est très bon mais cette fois ci j’ai payé 6,50€ un petit sandwich je trouve ça exagérer pour quelques bouts de viandes, de la sauce, de la salade. :/ quasiment 10€, et 10,50€ le menu. Vraiment exagérer niveau prix.</t>
+        </is>
+      </c>
+      <c r="B154" s="2">
+        <v>45056</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Bonne nourriture, tarif correcte, service assez rapide.</t>
+        </is>
+      </c>
+      <c r="B155" s="2">
+        <v>43369</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Accueil très moyen, peu d'explications sur les différents chocolats. Prix élevés pour une originalité modérée....</t>
+        </is>
+      </c>
+      <c r="B156" s="2">
+        <v>44212</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>hygiène déplorable.
+Les sanitaires sont dans un état ...une horreur.. et après avoir fait la réflexion a une employée celle ci m'a dit qu'il yavait pas de femme de ménage..</t>
+        </is>
+      </c>
+      <c r="B157" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bonne sandwicherie personnel professionnels mais pas tjrs propre</t>
+        </is>
+      </c>
+      <c r="B158" s="2">
+        <v>43063</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Personnel plutôt serviable, joli choix de sandwich et formules menu. L'endroit est plutôt agréable contrairement à ce que l'on pourrait penser lorsqu'on le voit.</t>
+        </is>
+      </c>
+      <c r="B159" s="2">
+        <v>42588</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Les produits sont bons, le service est rapide malgré les files d'attentes gigantesque à 12h.
+Possibilité de commander par téléphone ou par l'appli mobile.
+Les prix sont ok !
+Je recommande !</t>
+        </is>
+      </c>
+      <c r="B160" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Bon service, ça dépanne.</t>
+        </is>
+      </c>
+      <c r="B161" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Ce lieu est abrité on y trouve de quoi prendre un bon goûter. On peut aussi manger sur des table.</t>
+        </is>
+      </c>
+      <c r="B162" s="2">
+        <v>43267</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Mauvais accueil, on a eu l'impression de déranger la caissière. Pas aimable. Le pain du sandwich était dur, et les tables sales.</t>
+        </is>
+      </c>
+      <c r="B163" s="2">
+        <v>44905</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Très bon pour du surgelé mes un bonne accueil de la part du personnel</t>
+        </is>
+      </c>
+      <c r="B164" s="2">
+        <v>43632</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Plage horaire assez grande.
+Bon accueil.</t>
+        </is>
+      </c>
+      <c r="B165" s="2">
+        <v>43607</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>L’accueil et le personnel était parfait, en revanche, les sandwichs n’étaient pas bon, fades tout comme les pâtisseries… Déçu de cette boulangerie dont l’enseigne m’avait habitué à bien mieux, en bref, passez votre chemin.</t>
+        </is>
+      </c>
+      <c r="B166" s="2">
+        <v>44827</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>A 9h30 des chouquettes dures et sèches, sûrement de la veille et ce n'est pas la première fois, je me suis faites encore avoir!
+Arreter d'arnaquer les gens.</t>
+        </is>
+      </c>
+      <c r="B167" s="2">
+        <v>44632</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>29 juillet 23
+Deuxième passage ce matin : trop tôt pour les tartelettes mais le précédent existe donc en insistant un peu je les ai eu ; deux cette fois, et ... je reviendrai (i'l be bach)
+Un mois plus tôt
+Tout comme à la brioché dorée du centre commerciale Montparnasse, ici aussi, la tartelette aux pommes est un régal !!! Pâte feuilleté croustillante et cuite à la perfection (d'après moi), quartiers de pomme cuitent à cœur, goûteuses et fondantes ... on regrette qu'elle ne soit pas plus grande !!! Une délicieuse gourmandise toute simple ... merci</t>
+        </is>
+      </c>
+      <c r="B168" s="2">
+        <v>45136</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tout est parfait, le personnel très très agréable gentil et serviable, une boulangerie comme on aimerait en trouver partout!!!</t>
+        </is>
+      </c>
+      <c r="B169" s="2">
+        <v>44764</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Du choix, un service relativement rapide, quelques sourires de la part de l'équipe de vente. Les formules sont bien. C'est bon. C'est propre.</t>
+        </is>
+      </c>
+      <c r="B170" s="2">
+        <v>43509</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3 viennoiserie achetées,une gratuite on aurait tort de s en priver</t>
+        </is>
+      </c>
+      <c r="B171" s="2">
+        <v>43813</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Restauration correcte mais toilettes inacceptables !</t>
+        </is>
+      </c>
+      <c r="B172" s="2">
+        <v>43323</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Très agréablement reçu</t>
+        </is>
+      </c>
+      <c r="B173" s="2">
+        <v>43263</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>J'adore cette boulangerie!!! Les tartines savoyardes sont super bonnes si seulement je pouvais savoir quel pain c'est. Dès que nous venions vers ce coin de lyon nous nous arrêtons pour manger jamais déçu. Les pizzas sont délicieuses. Les pains sont top et il dure je recommande cette boulangerie nous en sommes ravis. Petit point négatif si vous vous arrêtez mangé dans le restaurant il y a un soucis avec les portes qui ne se ferment pas automatiquement bonjour les courants d'airs.</t>
+        </is>
+      </c>
+      <c r="B174" s="2">
+        <v>43816</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Très bon café. Cadre sympathique.</t>
+        </is>
+      </c>
+      <c r="B175" s="2">
+        <v>43572</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Personnel pas souriant limite impoli.faut apprendre vitre métier.
+Avant c étais mieux.</t>
+        </is>
+      </c>
+      <c r="B176" s="2">
+        <v>44672</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Personnel désagréable dans cette boulangerie</t>
+        </is>
+      </c>
+      <c r="B177" s="2">
+        <v>44775</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Très bonne  produits</t>
+        </is>
+      </c>
+      <c r="B178" s="2">
+        <v>44933</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Nickel avec la possibilité de commander via l'application dédié</t>
+        </is>
+      </c>
+      <c r="B179" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Produits de qualité et rapidité de service</t>
+        </is>
+      </c>
+      <c r="B180" s="2">
+        <v>43346</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Ange Boulangerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sympa pour le midi, un bon sandwich, d'excellents desserts.</t>
+        </is>
+      </c>
+      <c r="B181" s="2">
+        <v>43399</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Personnel tres souriant, bonne ambiance. De très bon granita je recommande</t>
+        </is>
+      </c>
+      <c r="B182" s="2">
+        <v>43659</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Brioche Doree</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Travaillant dans la galerie de Grand Place je suis passé aujourd'hui pour un Toogoodtogo, j'ai été agréablement surpris par l'accueil (ce qui se fait rare), l'équipe est sympathique, les produits sont bons, je reviendrais hors Toogoodtogo, je recommande vivement =)</t>
+        </is>
+      </c>
+      <c r="B183" s="2">
+        <v>44522</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>la croissanterie</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>J'adore les cookies</t>
+        </is>
+      </c>
+      <c r="B184" s="2">
+        <v>42609</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>La mie Caline</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Bonne boulangerie je conseille pour manger le midi il y a un peu de monde...</t>
+        </is>
+      </c>
       <c r="B185" s="2">
-        <v>44675</v>
+        <v>44281</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -3802,69 +3772,69 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Bon service, ça dépanne.</t>
+          <t>Équipe très sympa!</t>
         </is>
       </c>
       <c r="B186" s="2">
-        <v>44366</v>
+        <v>43641</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>le pain est excellent facile à congeler tellement bon que je déplace de Tassin pour aller acheter service excellent rien à dire merci</t>
+          <t>Terrasse au soleil avec un personnel tout aussi radieux.</t>
         </is>
       </c>
       <c r="B187" s="2">
-        <v>43830</v>
+        <v>45109</v>
       </c>
       <c r="C187">
         <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cette boulangerie est trės propre, le service très bien et les vendeuses accueillants
-Je la recommande</t>
+          <t>Personnel très agréable,  rapide.
+Café.  Croissant  etc !!! Très bonne qualité.</t>
         </is>
       </c>
       <c r="B188" s="2">
-        <v>44202</v>
+        <v>44099</v>
       </c>
       <c r="C188">
         <v>5</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Service accueillant .</t>
+          <t>Personnels sympa...</t>
         </is>
       </c>
       <c r="B189" s="2">
-        <v>43840</v>
+        <v>43197</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3875,14 +3845,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>J’ai commander un buble tea a 4€35 . Le gobelet était remplie à moitier , le personelle assez désagréable , mauvaise expérience je ne vous recommande pas d’y aller</t>
+          <t>Pour tout les goûts très frais</t>
         </is>
       </c>
       <c r="B190" s="2">
-        <v>44767</v>
+        <v>43341</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3893,32 +3863,32 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>endroit propre et correct. Serveuses professionnelles. salle à l'étage. pas d'ascenseur. belle vue sur l'opéra Garnier.</t>
+          <t>2€ 40 un cookie 3 chocolat j’appelle ça du vole !!!</t>
         </is>
       </c>
       <c r="B191" s="2">
-        <v>42689</v>
+        <v>45079</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Brioche Doree</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>7h du matin. Croissants encore chauds délicieux. Café crème très bon et accueil sympathique. Peu de monde en salle donc tranquille pour déjeuner. Rien à redire.</t>
+          <t>Le sens de circulation et le service sont à revoir</t>
         </is>
       </c>
       <c r="B192" s="2">
-        <v>42874</v>
+        <v>43864</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3929,50 +3899,50 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Toujours un plaisir de venir ici......</t>
+          <t>Personnel agréable,  souriant</t>
         </is>
       </c>
       <c r="B193" s="2">
-        <v>43846</v>
+        <v>44424</v>
       </c>
       <c r="C193">
         <v>4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>la croissanterie</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mise à jour : on viens là souvent et toute l'équipe est toujours très agréable et serviable   et c'est très bon</t>
+          <t>Personnel insociable</t>
         </is>
       </c>
       <c r="B194" s="2">
-        <v>44261</v>
+        <v>44790</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bon choix de boissons chaudes. Restauration rapide mais de qualité.</t>
+          <t>L’une des deux serveuses (d’origine africaine) est vraiment pas très sympa. Aucun accueil, regard haineux. À fuir.</t>
         </is>
       </c>
       <c r="B195" s="2">
-        <v>43733</v>
+        <v>45149</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3983,50 +3953,49 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Très bon accueil. Bonne alimentation.  La qualité est au rendez-vous.</t>
+          <t>Du choix, des produits frais et de bonne qualité. Je recommande.</t>
         </is>
       </c>
       <c r="B196" s="2">
-        <v>43305</v>
+        <v>43780</v>
       </c>
       <c r="C196">
         <v>5</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>La boulangerie à grande échelle qui est proposé ici est impeccable il y a un large choix en pâtisserie et viennoiserie le personnel est très agréable probablement entraîner à cela.
-Par la même occasion je recommande leur pizza car pour le prix et la taille de celles-ci elles sont excellentes par le goût et par l'aspect.</t>
+          <t>Désastreux, pas par tant le tarif que j ai payé que par le peu d' amabilité du responsable. Il y a des manières de dire les choses d autant plus que je suis une cliente.
+OK quand on prend une bouteille, cela ne rentre pas dans le prix du menu mais là, je n ai pas supporté la manière de ma parler.
+JE NE REVIENDRAI PLUS ET JE ME CHARGE DE PASSER LE MESSAGE A TOUS MES COLLEGUES.</t>
         </is>
       </c>
       <c r="B197" s="2">
-        <v>43288</v>
+        <v>44988</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>la croissanterie</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Malgré le monde permanent, l'équipe de service plus que nombreuse assure vraiment, ça dépote.
-De plus, c'est bon et pas franchement cher. On l'a très vite adopté avec les collègues quand nous travaillons dans le coin.
-Petit bonus: prendre 40 viennoiseries pour un événement ne leur pose aucun problème =)</t>
+          <t>Propre et pas cher</t>
         </is>
       </c>
       <c r="B198" s="2">
-        <v>43023</v>
+        <v>43714</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -4040,29 +4009,29 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Bon choix. Efficace.</t>
+          <t>Bon accueil et c'était bon ! Le gras des cookies c'est la vie</t>
         </is>
       </c>
       <c r="B199" s="2">
-        <v>44541</v>
+        <v>43490</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ange Boulangerie</t>
+          <t>La mie Caline</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Endroit sympathique et très bon rapport qualité prix</t>
+          <t>Honnêtement délicieux, on sent une différence avec d'autres boulangerie.</t>
         </is>
       </c>
       <c r="B200" s="2">
-        <v>43770</v>
+        <v>44891</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -4076,18 +4045,18 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Accueil à améliorer....les cookies sont top</t>
+          <t>le pain est excellent facile à congeler tellement bon que je déplace de Tassin pour aller acheter service excellent rien à dire merci</t>
         </is>
       </c>
       <c r="B201" s="2">
-        <v>45286</v>
+        <v>43830</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>La mie Caline</t>
+          <t>Ange Boulangerie</t>
         </is>
       </c>
     </row>
